--- a/API Testing.xlsx
+++ b/API Testing.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjubisht\Documents\GitHub\APITesting\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6772803D-5071-49D1-832A-F19A9106B676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11316"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -160,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -201,14 +195,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -222,19 +222,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J12" totalsRowShown="0">
-  <autoFilter ref="A1:J12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J12" totalsRowShown="0">
+  <autoFilter ref="A1:J12"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Precondition"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TestData"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Steps"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="UserAction"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ExpectedResult"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Approved/Rejected"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ReasonToReject"/>
+    <tableColumn id="1" name="TestScenarioID"/>
+    <tableColumn id="2" name="TestCaseID"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Precondition"/>
+    <tableColumn id="5" name="TestData"/>
+    <tableColumn id="6" name="Steps"/>
+    <tableColumn id="7" name="UserAction"/>
+    <tableColumn id="8" name="ExpectedResult"/>
+    <tableColumn id="9" name="Approved/Rejected" dataDxfId="0"/>
+    <tableColumn id="10" name="ReasonToReject"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -524,28 +524,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I1" sqref="I1:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="65.28515625" customWidth="1"/>
-    <col min="8" max="8" width="70.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="65.33203125" customWidth="1"/>
+    <col min="8" max="8" width="70.88671875" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,14 +570,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -596,11 +596,11 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
         <v>16</v>
       </c>
@@ -610,8 +610,11 @@
       <c r="H3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
         <v>19</v>
       </c>
@@ -621,8 +624,11 @@
       <c r="H4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
         <v>22</v>
       </c>
@@ -632,8 +638,11 @@
       <c r="H5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>25</v>
       </c>
@@ -643,8 +652,11 @@
       <c r="H6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>28</v>
       </c>
@@ -654,8 +666,11 @@
       <c r="H7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>31</v>
       </c>
@@ -665,8 +680,11 @@
       <c r="H8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>34</v>
       </c>
@@ -676,8 +694,11 @@
       <c r="H9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>35</v>
       </c>
@@ -687,8 +708,11 @@
       <c r="H10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
         <v>38</v>
       </c>
@@ -698,8 +722,11 @@
       <c r="H11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
         <v>41</v>
       </c>
@@ -708,6 +735,9 @@
       </c>
       <c r="H12" t="s">
         <v>43</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
